--- a/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>12,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,72%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 21,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0; 6,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,67</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 14,26</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0; 7,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,4</t>
+          <t>0,0; 27,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0,0; 61,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 12,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,73</t>
+          <t>0; 3,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,38</t>
+          <t>0,0; 14,51</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,05</t>
+          <t>0,0; 28,32</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,23%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,32; 2,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>1,75; 14,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,37</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,59; 3,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,28</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,95</t>
+          <t>0,2; 1,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,77</t>
+          <t>0,59; 2,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,6</t>
+          <t>1,25; 10,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,08</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>1,44; 7,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>1,32; 21,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0; 0,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,43; 3,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,76</t>
+          <t>0,44; 3,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,74</t>
+          <t>0,0; 17,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,73</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,22; 2,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,51</t>
+          <t>1,23; 4,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,32</t>
+          <t>2,26; 15,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,47</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 21,62</t>
+          <t>0; 4,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,37; 3,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,62</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,99</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>0,0; 9,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,38; 2,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,19</t>
+          <t>0,2; 1,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,53</t>
+          <t>0,19; 1,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 15,74</t>
+          <t>0,0; 4,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,08</t>
+          <t>0,0; 20,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,76</t>
+          <t>0,0; 27,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,73</t>
+          <t>0,0; 9,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,51</t>
+          <t>0,0; 14,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,13</t>
+          <t>1,18; 7,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,35</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,24</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,78</t>
+          <t>0,0; 26,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>0,0; 2,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,21</t>
+          <t>0,93; 4,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,74</t>
+          <t>0,0; 9,36</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,67</t>
+          <t>0,32; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 14,26</t>
+          <t>1,59; 15,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,4</t>
+          <t>0,61; 3,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,73</t>
+          <t>0,18; 1,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,38</t>
+          <t>0,49; 2,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 10,05</t>
+          <t>1,35; 9,83</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,47</t>
+          <t>1,51; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 21,62</t>
+          <t>1,35; 25,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,62</t>
+          <t>0,43; 3,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,99</t>
+          <t>0,44; 3,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,14</t>
+          <t>0,0; 16,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,19</t>
+          <t>0,22; 1,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,53</t>
+          <t>1,22; 4,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 15,74</t>
+          <t>2,24; 18,33</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,77</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,37</t>
+          <t>0,37; 3,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>0,0; 10,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,28</t>
+          <t>0,4; 2,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,95</t>
+          <t>0,2; 1,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,77</t>
+          <t>0,19; 1,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,6</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,4</t>
+          <t>0,19; 1,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,87</t>
+          <t>0,51; 1,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,46</t>
+          <t>0,8; 2,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,03</t>
+          <t>1,88; 8,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,45</t>
+          <t>0,22; 1,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,63</t>
+          <t>0,4; 1,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,18</t>
+          <t>0,61; 2,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,94</t>
+          <t>0,99; 6,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,08</t>
+          <t>0,28; 1,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,51</t>
+          <t>0,6; 1,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,89</t>
+          <t>0,79; 1,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,52</t>
+          <t>2,06; 6,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,73</t>
+          <t>0,0; 18,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,11</t>
+          <t>0,0; 33,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,74</t>
+          <t>0,0; 62,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,31</t>
+          <t>0,0; 12,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,19 +774,19 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,59</t>
+          <t>0,0; 12,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,32</t>
+          <t>0,0; 28,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,07</t>
+          <t>1,18; 6,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,0</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,0; 4,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,34 +899,34 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,31</t>
+          <t>0,0; 21,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,62</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,32</t>
+          <t>0,91; 4,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,36</t>
+          <t>0,0; 9,83</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,44</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,36</t>
+          <t>0,32; 2,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,77</t>
+          <t>1,57; 15,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,41</t>
+          <t>0,58; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,29 +1044,29 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,09</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,65</t>
+          <t>0,18; 1,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,59; 2,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 9,83</t>
+          <t>1,14; 9,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,66</t>
+          <t>0,0; 1,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 7,67</t>
+          <t>1,33; 7,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 25,22</t>
+          <t>1,35; 26,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,65</t>
+          <t>0,43; 3,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,75</t>
+          <t>0,44; 4,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,36</t>
+          <t>0,0; 16,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,98</t>
+          <t>0,22; 1,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,68</t>
+          <t>1,2; 4,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 18,33</t>
+          <t>2,13; 16,26</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,42 +1304,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,64</t>
+          <t>0,37; 3,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,25</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,38</t>
+          <t>0,38; 2,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,88</t>
+          <t>0,2; 1,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,8</t>
+          <t>0,17; 1,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,54</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,28</t>
+          <t>0,19; 1,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,94</t>
+          <t>0,59; 1,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,4</t>
+          <t>0,77; 2,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,98</t>
+          <t>2,15; 9,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,37</t>
+          <t>0,23; 1,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,61</t>
+          <t>0,4; 1,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,02</t>
+          <t>0,64; 1,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,15</t>
+          <t>0,91; 6,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,04</t>
+          <t>0,3; 1,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,5</t>
+          <t>0,62; 1,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,9</t>
+          <t>0,84; 1,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,75</t>
+          <t>1,94; 6,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,86%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,13</t>
+          <t>0,0; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,0; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 20,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>1,35; 5,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,91</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,82</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,13</t>
+          <t>0,24; 2,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>0,77; 3,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,45</t>
+          <t>0,23; 2,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,72</t>
+          <t>0,0; 10,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,42 +816,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 6,48</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,95</t>
+          <t>0,59; 3,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,44</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,28</t>
+          <t>0,32; 2,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,03</t>
+          <t>1,79; 14,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,24</t>
+          <t>0,2; 1,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,59; 2,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,83</t>
+          <t>1,34; 10,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>6,42%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0; 0,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,43; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,98</t>
+          <t>0,44; 3,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 15,29</t>
+          <t>0,0; 15,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,6</t>
+          <t>1,44; 7,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>1,26; 20,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,69</t>
+          <t>0,22; 2,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,39</t>
+          <t>1,23; 4,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,44</t>
+          <t>2,1; 15,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,37; 3,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,6</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 26,55</t>
+          <t>0,0; 10,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,54</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,25</t>
+          <t>0,0; 2,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,13</t>
+          <t>0; 4,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,38; 2,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,96</t>
+          <t>0,2; 1,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,58</t>
+          <t>0,19; 1,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 16,26</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,24; 1,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,4; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,65; 2,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>1,01; 7,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,5</t>
+          <t>0,22; 1,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,58; 1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,76; 2,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>1,94; 9,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,34</t>
+          <t>0,31; 1,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,94</t>
+          <t>0,61; 1,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,75</t>
+          <t>0,83; 1,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,01</t>
+          <t>2,08; 6,5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,24</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 2,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 9,75</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 1,31</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 1,58</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 1,98</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 6,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 1,1</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 1,47</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,9</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 6,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
